--- a/biology/Médecine/Ligament_collatéral_latéral_de_l'articulation_talo-crurale/Ligament_collatéral_latéral_de_l'articulation_talo-crurale.xlsx
+++ b/biology/Médecine/Ligament_collatéral_latéral_de_l'articulation_talo-crurale/Ligament_collatéral_latéral_de_l'articulation_talo-crurale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_lat%C3%A9ral_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_latéral_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral latéral de l'articulation talo-crurale (ou ligament latéral externe de l'articulation du cou-de-pied ) est un système ligamentaire de la face latérale de l'articulation talo-crurale situé entre la malléole latérale et la partie postérieure du tarse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_lat%C3%A9ral_de_l%27articulation_talo-crurale</t>
+          <t>Ligament_collatéral_latéral_de_l'articulation_talo-crurale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,124 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ligament collatéral latéral de l'articulation talo-crurale est composé de trois faisceaux :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le ligament collatéral latéral de l'articulation talo-crurale est composé de trois faisceaux :
 un faisceau antérieur : le ligament talo-fibulaire antérieur,
 un faisceau moyen : le ligament calcanéo-fibulaire,
-un faisceau postérieur: le ligament talo-fibulaire postérieur.
-Ligament talo-fibulaire antérieur
-Le ligament talo-fibulaire antérieur relie le bord antérieur de la malléole latérale à la région adjacente de l'os du talus.
-Ligament calcanéo-fibulaire
-Le ligament calcanéo-fibulaire relie sur le côté postéro-médial de la malléole latérale et descend en postéro-inférieur vers un côté latéral du calcanéus.
-Ligament talo-fibulaire postérieur
-Le ligament talo-fibulaire postérieur s'étend horizontalement entre le col du talus et le côté médial de la malléole latérale.
+un faisceau postérieur: le ligament talo-fibulaire postérieur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ligament_collatéral_latéral_de_l'articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_collat%C3%A9ral_lat%C3%A9ral_de_l%27articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ligament talo-fibulaire antérieur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament talo-fibulaire antérieur relie le bord antérieur de la malléole latérale à la région adjacente de l'os du talus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ligament_collatéral_latéral_de_l'articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_collat%C3%A9ral_lat%C3%A9ral_de_l%27articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ligament calcanéo-fibulaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament calcanéo-fibulaire relie sur le côté postéro-médial de la malléole latérale et descend en postéro-inférieur vers un côté latéral du calcanéus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ligament_collatéral_latéral_de_l'articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ligament_collat%C3%A9ral_lat%C3%A9ral_de_l%27articulation_talo-crurale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ligament talo-fibulaire postérieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ligament talo-fibulaire postérieur s'étend horizontalement entre le col du talus et le côté médial de la malléole latérale.
 </t>
         </is>
       </c>
